--- a/Basededatos/RNUCLEO.xlsx
+++ b/Basededatos/RNUCLEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD_V2/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D2F04E46CFB4ACB3E20031514F388693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8020689C-956A-43F9-AB36-D5311149E0DB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="113_{66C88851-5A3A-49A2-B64F-96CD35BF285C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97BD30D-6261-44B9-B73E-36607835501A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,9 +451,7 @@
       <c r="C3" s="2">
         <v>44693</v>
       </c>
-      <c r="D3" s="4">
-        <v>665</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -462,9 +460,7 @@
       <c r="C4" s="2">
         <v>43488</v>
       </c>
-      <c r="D4" s="4">
-        <v>551</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -473,9 +469,7 @@
       <c r="C5" s="2">
         <v>43136</v>
       </c>
-      <c r="D5" s="4">
-        <v>933</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -484,9 +478,7 @@
       <c r="C6" s="2">
         <v>43061</v>
       </c>
-      <c r="D6" s="4">
-        <v>535</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -495,9 +487,7 @@
       <c r="C7" s="2">
         <v>44730</v>
       </c>
-      <c r="D7" s="4">
-        <v>552</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -506,9 +496,7 @@
       <c r="C8" s="2">
         <v>42148</v>
       </c>
-      <c r="D8" s="4">
-        <v>912</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -517,9 +505,7 @@
       <c r="C9" s="2">
         <v>41864</v>
       </c>
-      <c r="D9" s="4">
-        <v>928</v>
-      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -528,9 +514,7 @@
       <c r="C10" s="2">
         <v>41583</v>
       </c>
-      <c r="D10" s="4">
-        <v>287</v>
-      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -539,9 +523,7 @@
       <c r="C11" s="2">
         <v>45489</v>
       </c>
-      <c r="D11" s="4">
-        <v>618</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -550,9 +532,7 @@
       <c r="C12" s="2">
         <v>43034</v>
       </c>
-      <c r="D12" s="4">
-        <v>978</v>
-      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -561,9 +541,7 @@
       <c r="C13" s="2">
         <v>42433</v>
       </c>
-      <c r="D13" s="4">
-        <v>195</v>
-      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -572,9 +550,7 @@
       <c r="C14" s="2">
         <v>41954</v>
       </c>
-      <c r="D14" s="4">
-        <v>216</v>
-      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -583,9 +559,7 @@
       <c r="C15" s="2">
         <v>45609</v>
       </c>
-      <c r="D15" s="4">
-        <v>801</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -594,9 +568,7 @@
       <c r="C16" s="2">
         <v>43082</v>
       </c>
-      <c r="D16" s="4">
-        <v>710</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -605,9 +577,7 @@
       <c r="C17" s="2">
         <v>42618</v>
       </c>
-      <c r="D17" s="4">
-        <v>916</v>
-      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
@@ -616,9 +586,7 @@
       <c r="C18" s="2">
         <v>41787</v>
       </c>
-      <c r="D18" s="4">
-        <v>469</v>
-      </c>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Basededatos/RNUCLEO.xlsx
+++ b/Basededatos/RNUCLEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="113_{66C88851-5A3A-49A2-B64F-96CD35BF285C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97BD30D-6261-44B9-B73E-36607835501A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="113_{66C88851-5A3A-49A2-B64F-96CD35BF285C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05CE142-CE3B-4742-9C92-C21136162306}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -37,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>SERIE</t>
   </si>
@@ -52,6 +43,12 @@
   </si>
   <si>
     <t>Valor (MΩ)</t>
+  </si>
+  <si>
+    <t>TempR</t>
+  </si>
+  <si>
+    <t>HumR</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -140,6 +137,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -443,8 +443,14 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +459,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,7 +468,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +477,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,7 +486,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>364076</v>
       </c>
@@ -489,7 +495,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>364076</v>
       </c>
@@ -498,7 +504,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>364076</v>
       </c>
@@ -507,7 +513,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>364076</v>
       </c>
@@ -516,7 +522,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +531,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +540,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,7 +549,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,7 +558,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>338118</v>
       </c>
@@ -561,7 +567,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>338118</v>
       </c>
